--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-coverage-item-benefit-type.xlsx
+++ b/ValueSet-coverage-item-benefit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
